--- a/data/trans_orig/PCS12_SP-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Provincia-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Puntuación del componente de salud física (SF12)</t>
+          <t>Puntuación media del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>51,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>51,0</t>
+          <t>51,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>48,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,58</t>
+          <t>48,75</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>50,19</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>49,76</t>
+          <t>50,08</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,56; 52,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,04; 51,9</t>
+          <t>50,36; 52,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,05; 49,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,86; 49,35</t>
+          <t>48,07; 49,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,33; 51,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,15; 50,37</t>
+          <t>49,42; 50,71</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>51,2</t>
+          <t>51,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,24</t>
+          <t>49,31</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>50,19</t>
+          <t>50,37</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,25; 52,02</t>
+          <t>50,47; 52,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,41; 49,99</t>
+          <t>48,49; 50,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,59; 50,82</t>
+          <t>49,77; 50,99</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50,04</t>
+          <t>50,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,13</t>
+          <t>49,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>49,56</t>
+          <t>49,68</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,96; 51,01</t>
+          <t>49,13; 51,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,21; 50,1</t>
+          <t>48,28; 50,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,88; 50,23</t>
+          <t>48,99; 50,33</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>51,82</t>
+          <t>51,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>49,96</t>
+          <t>50,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>48,22</t>
+          <t>47,98</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,11</t>
+          <t>50,24</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>50,01</t>
+          <t>49,87</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>49,47</t>
+          <t>50,18</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,99; 52,52</t>
+          <t>50,63; 52,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,49; 51,29</t>
+          <t>48,63; 51,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,31; 49,13</t>
+          <t>46,74; 49,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,0; 50,2</t>
+          <t>48,72; 52,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49,43; 50,57</t>
+          <t>49,06; 50,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,63; 50,39</t>
+          <t>49,15; 51,8</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,04</t>
+          <t>51,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>51,9</t>
+          <t>51,89</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,17; 51,7</t>
+          <t>50,16; 51,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,31; 52,41</t>
+          <t>51,3; 52,39</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,07</t>
+          <t>50,16</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,08</t>
+          <t>48,07</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>49,07</t>
+          <t>49,14</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,22; 50,97</t>
+          <t>49,31; 51,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,99; 49,03</t>
+          <t>46,97; 49,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>48,29; 49,65</t>
+          <t>48,36; 49,72</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>51,75</t>
+          <t>51,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>50,44</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>50,77</t>
+          <t>51,08</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,95; 52,43</t>
+          <t>51,16; 52,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,14; 51,24</t>
+          <t>49,33; 51,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,22; 51,45</t>
+          <t>50,51; 51,9</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>52,15</t>
+          <t>51,35</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>50,1</t>
+          <t>50,08</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>51,12</t>
+          <t>50,8</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51,35; 52,75</t>
+          <t>49,83; 52,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,45; 50,72</t>
+          <t>49,46; 50,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>50,62; 51,5</t>
+          <t>49,91; 51,35</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>51,31</t>
+          <t>51,24</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>49,55</t>
+          <t>49,8</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>50,38</t>
+          <t>50,5</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>51,0; 51,59</t>
+          <t>50,64; 51,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>49,21; 49,97</t>
+          <t>49,35; 50,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>50,17; 50,63</t>
+          <t>50,23; 50,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PCS12_SP-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,49; 53,41</t>
+          <t>51,47; 53,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,56; 52,81</t>
+          <t>50,68; 52,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,89; 53,01</t>
+          <t>50,98; 52,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,36; 52,28</t>
+          <t>50,23; 52,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,03; 52,19</t>
+          <t>50,05; 52,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,05; 49,82</t>
+          <t>47,2; 49,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,3; 50,1</t>
+          <t>47,44; 50,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,07; 49,57</t>
+          <t>47,94; 49,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,1; 52,52</t>
+          <t>51,01; 52,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,33; 51,05</t>
+          <t>49,3; 50,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,61; 51,32</t>
+          <t>49,43; 51,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,42; 50,71</t>
+          <t>49,38; 50,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,78; 53,16</t>
+          <t>51,67; 53,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,05; 52,81</t>
+          <t>51,03; 52,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,95; 53,4</t>
+          <t>51,89; 53,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,47; 52,24</t>
+          <t>50,45; 52,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,85; 50,53</t>
+          <t>48,84; 50,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,21; 50,2</t>
+          <t>48,19; 50,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,62; 51,47</t>
+          <t>49,63; 51,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,49; 50,05</t>
+          <t>48,56; 50,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,55; 51,65</t>
+          <t>50,54; 51,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,89; 51,26</t>
+          <t>49,99; 51,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,03; 52,2</t>
+          <t>51,0; 52,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,77; 50,99</t>
+          <t>49,77; 50,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,53; 53,97</t>
+          <t>52,52; 53,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,78; 52,97</t>
+          <t>50,7; 52,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,47; 54,08</t>
+          <t>52,51; 54,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,13; 51,16</t>
+          <t>49,12; 51,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,71; 50,8</t>
+          <t>48,75; 50,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,97; 51,25</t>
+          <t>49,01; 51,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,81; 52,89</t>
+          <t>50,76; 52,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,28; 50,15</t>
+          <t>48,22; 49,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>50,87; 52,11</t>
+          <t>50,78; 52,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,26; 51,81</t>
+          <t>50,24; 51,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,93; 53,32</t>
+          <t>51,86; 53,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,99; 50,33</t>
+          <t>48,98; 50,34</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,45; 53,94</t>
+          <t>52,49; 53,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,63; 52,67</t>
+          <t>50,61; 52,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,97; 51,98</t>
+          <t>50,14; 52,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,63; 51,41</t>
+          <t>48,59; 51,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,07; 51,0</t>
+          <t>49,04; 51,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,74; 49,2</t>
+          <t>46,7; 49,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,68; 49,18</t>
+          <t>46,68; 49,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,72; 52,33</t>
+          <t>48,71; 52,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,97; 52,19</t>
+          <t>50,98; 52,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49,06; 50,71</t>
+          <t>49,09; 50,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,68; 50,33</t>
+          <t>48,59; 50,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,15; 51,8</t>
+          <t>49,1; 51,78</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,38; 54,16</t>
+          <t>52,39; 54,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,31; 52,82</t>
+          <t>50,44; 52,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,17; 54,31</t>
+          <t>52,21; 54,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>52,03; 53,61</t>
+          <t>51,89; 53,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,59; 52,33</t>
+          <t>49,54; 52,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,29; 49,27</t>
+          <t>46,38; 49,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>50,03; 52,57</t>
+          <t>49,95; 52,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,16; 51,67</t>
+          <t>50,28; 51,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,31; 52,97</t>
+          <t>51,36; 52,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,68; 50,78</t>
+          <t>48,76; 50,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,39; 53,1</t>
+          <t>51,37; 53,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,3; 52,39</t>
+          <t>51,32; 52,42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>51,58; 53,31</t>
+          <t>51,65; 53,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,08; 52,27</t>
+          <t>50,21; 52,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,95; 52,42</t>
+          <t>49,92; 52,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,31; 51,05</t>
+          <t>49,14; 50,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,72; 50,16</t>
+          <t>47,77; 50,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,55; 51,0</t>
+          <t>48,51; 51,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,94; 50,72</t>
+          <t>47,85; 50,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,97; 49,03</t>
+          <t>47,09; 48,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,91; 51,5</t>
+          <t>50,02; 51,47</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>49,7; 51,41</t>
+          <t>49,59; 51,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>49,37; 51,27</t>
+          <t>49,28; 51,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>48,36; 49,72</t>
+          <t>48,36; 49,76</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,3</t>
+          <t>52,18; 53,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>52,36; 53,59</t>
+          <t>52,35; 53,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,88; 53,18</t>
+          <t>51,82; 53,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>51,16; 52,66</t>
+          <t>51,2; 52,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,11; 51,48</t>
+          <t>50,09; 51,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,37; 50,88</t>
+          <t>49,3; 50,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,14; 50,87</t>
+          <t>49,16; 50,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,33; 51,89</t>
+          <t>49,32; 51,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,37; 52,24</t>
+          <t>51,27; 52,22</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>51,01; 52,02</t>
+          <t>51,01; 52,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50,72; 51,79</t>
+          <t>50,62; 51,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,51; 51,9</t>
+          <t>50,47; 51,88</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>51,95; 53,17</t>
+          <t>51,96; 53,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>52,21; 53,35</t>
+          <t>52,18; 53,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53,31; 54,19</t>
+          <t>53,26; 54,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49,83; 52,55</t>
+          <t>49,81; 52,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>49,96; 51,36</t>
+          <t>50,01; 51,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>50,68; 51,87</t>
+          <t>50,65; 51,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,96; 52,24</t>
+          <t>50,93; 52,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,46; 50,68</t>
+          <t>49,33; 50,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51,14; 52,06</t>
+          <t>51,15; 52,05</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>51,61; 52,42</t>
+          <t>51,59; 52,4</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>52,26; 53,1</t>
+          <t>52,24; 53,05</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>49,91; 51,35</t>
+          <t>49,8; 51,33</t>
         </is>
       </c>
     </row>
@@ -1844,52 +1844,52 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,05</t>
+          <t>52,55; 53,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,94; 52,58</t>
+          <t>51,95; 52,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>52,4; 52,97</t>
+          <t>52,42; 52,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>50,64; 51,57</t>
+          <t>50,7; 51,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50,01; 50,66</t>
+          <t>50,02; 50,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,41; 50,1</t>
+          <t>49,42; 50,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>49,97; 50,76</t>
+          <t>50,01; 50,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>49,35; 50,5</t>
+          <t>49,33; 50,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,77</t>
+          <t>51,33; 51,77</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>50,73; 51,2</t>
+          <t>50,74; 51,23</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>50,23; 50,81</t>
+          <t>50,23; 50,84</t>
         </is>
       </c>
     </row>
